--- a/Research/Board_candidates/Board_candidates.xlsx
+++ b/Research/Board_candidates/Board_candidates.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Board_candidates" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="67">
   <si>
     <t>Price (DKK)</t>
   </si>
@@ -69,21 +69,12 @@
     <t>1 GHz BCM2835</t>
   </si>
   <si>
-    <t>512 MB</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>5V</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Very high</t>
-  </si>
-  <si>
     <t>https://www.raspberrypi.org/</t>
   </si>
   <si>
@@ -93,12 +84,6 @@
     <t>1.4 GHz ARM A9</t>
   </si>
   <si>
-    <t>1 GB</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
     <t>http://nanopi.io/nanopi2-fire.html</t>
   </si>
   <si>
@@ -108,9 +93,6 @@
     <t>1.2 GHz ARM A53</t>
   </si>
   <si>
-    <t>2 GB</t>
-  </si>
-  <si>
     <t>https://www.pine64.org/?page_id=1194</t>
   </si>
   <si>
@@ -135,9 +117,6 @@
     <t>1.6 GHz ARM A7</t>
   </si>
   <si>
-    <t>Very low</t>
-  </si>
-  <si>
     <t>http://www.orangepi.org/orangepiplus2/</t>
   </si>
   <si>
@@ -147,15 +126,6 @@
     <t>1 GHz ARM V7-A</t>
   </si>
   <si>
-    <t>256 MB</t>
-  </si>
-  <si>
-    <t>3-23V</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
     <t>https://docs.getchip.com/chip_pro_devkit.html</t>
   </si>
   <si>
@@ -174,9 +144,6 @@
     <t>1.8 GHz ARM A17</t>
   </si>
   <si>
-    <t>Medium</t>
-  </si>
-  <si>
     <t>https://www.asus.com/uk/Single-Board-Computer/Tinker-Board/specifications/</t>
   </si>
   <si>
@@ -186,9 +153,6 @@
     <t>0.5 GHz Intel Atom</t>
   </si>
   <si>
-    <t>3.3-5V</t>
-  </si>
-  <si>
     <t>https://software.intel.com/en-us/iot/hardware/edison/documentation</t>
   </si>
   <si>
@@ -243,19 +207,25 @@
     <t>1.5 GHz ARM A15</t>
   </si>
   <si>
-    <t>12V</t>
-  </si>
-  <si>
     <t>https://beagleboard.org/x15</t>
   </si>
   <si>
     <t>BeagleBone Black w</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Weights: -&gt;</t>
+  </si>
+  <si>
+    <t>Names</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,7 +362,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,12 +540,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -739,9 +703,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="15" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -787,7 +752,68 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -798,6 +824,36 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{136C931E-E6C8-4A6C-9A87-2EF6D8CFF3A2}" name="Table1" displayName="Table1" ref="A2:P18" totalsRowShown="0">
+  <autoFilter ref="A2:P18" xr:uid="{7693F3BF-767D-4DEA-94BD-1E8B12A5BC17}"/>
+  <sortState ref="A3:P18">
+    <sortCondition descending="1" ref="B2:B18"/>
+  </sortState>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{323A3F8D-72B3-4686-BE97-57BCC4FA9E06}" name="Names"/>
+    <tableColumn id="2" xr3:uid="{0B0B615E-B34F-49C2-BCF3-34F6454D2F0F}" name="Score">
+      <calculatedColumnFormula>((MIN($D$3:$D$18))/D3*5*$D$1)+((E3/MAX($E$3:$E$18))*5*$E$1)+(IF(F3="Yes",5,1)*$F$1)+((IF(G3="Yes",5,1)*$G$1))+((IF(H3="Yes",5,1)*$H$1))+((IF(I3="Yes",5,1)*$I$1))+((IF(J3="Yes",5,1)*$J$1))+((IF(K3="Yes",5,1)*$K$1))+((IF(L3 &lt;= 5,5,1))*$L$1)+((IF(M3="Yes",5,1)*$M$1))+((N3/MAX($N$3:$N$18))*5*$N$1)+(O3*$O$1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{77310868-9774-4F48-B4A0-1917A4C474CA}" name="Processor"/>
+    <tableColumn id="4" xr3:uid="{18AF2B3D-B217-44A5-805F-791BCF757C55}" name="Price (DKK)"/>
+    <tableColumn id="5" xr3:uid="{7DEFB9D5-E2E7-4571-BD7B-E519A3C217DC}" name="RAM"/>
+    <tableColumn id="6" xr3:uid="{8C4925DB-290B-4385-AB1D-DEE9B0279F79}" name="RTOS"/>
+    <tableColumn id="7" xr3:uid="{217A5142-8D0B-40BD-9773-BA4E7561B908}" name="WiFi module"/>
+    <tableColumn id="8" xr3:uid="{0DD2DB64-AC65-4395-B0CA-7997E6867193}" name="UART"/>
+    <tableColumn id="9" xr3:uid="{4D6B711A-AA80-4200-BA19-6E955DEA6514}" name="SPI"/>
+    <tableColumn id="10" xr3:uid="{DF878BEA-3DBE-4BB2-A327-4B546274AAE2}" name="PWM"/>
+    <tableColumn id="11" xr3:uid="{E0636268-663C-4C02-8A96-E85CDF8C53F8}" name="I2C"/>
+    <tableColumn id="12" xr3:uid="{16E33166-832F-4535-9687-9E1F3D387561}" name="Supply"/>
+    <tableColumn id="13" xr3:uid="{440A9939-12C9-405E-A2A6-A84211EE848F}" name="Ethernet port"/>
+    <tableColumn id="14" xr3:uid="{4DABFDE9-69B9-457C-8F32-DD7DE431E22E}" name="GPIO"/>
+    <tableColumn id="15" xr3:uid="{8D126A98-748E-462E-BB2E-96E1490EF80B}" name="SupportLvl"/>
+    <tableColumn id="16" xr3:uid="{E0A764BE-C17C-40D0-ACB7-171A3D0EF13B}" name="Ref"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1096,843 +1152,1106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="80.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>2</v>
+      </c>
+      <c r="J1">
+        <v>4</v>
+      </c>
+      <c r="K1">
+        <v>2</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+      <c r="M1">
+        <v>5</v>
+      </c>
+      <c r="N1">
+        <v>1</v>
+      </c>
+      <c r="O1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>90</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <f>((MIN($D$3:$D$18))/D3*5*$D$1)+((E3/MAX($E$3:$E$18))*5*$E$1)+(IF(F3="Yes",5,1)*$F$1)+((IF(G3="Yes",5,1)*$G$1))+((IF(H3="Yes",5,1)*$H$1))+((IF(I3="Yes",5,1)*$I$1))+((IF(J3="Yes",5,1)*$J$1))+((IF(K3="Yes",5,1)*$K$1))+((IF(L3 &lt;= 5,5,1))*$L$1)+((IF(M3="Yes",5,1)*$M$1))+((N3/MAX($N$3:$N$18))*5*$N$1)+(O3*$O$1)</f>
+        <v>161.96969696969697</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>220</v>
+      </c>
+      <c r="E3">
+        <v>2048</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3">
+        <v>40</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <f>((MIN($D$3:$D$18))/D4*5*$D$1)+((E4/MAX($E$3:$E$18))*5*$E$1)+(IF(F4="Yes",5,1)*$F$1)+((IF(G4="Yes",5,1)*$G$1))+((IF(H4="Yes",5,1)*$H$1))+((IF(I4="Yes",5,1)*$I$1))+((IF(J4="Yes",5,1)*$J$1))+((IF(K4="Yes",5,1)*$K$1))+((IF(L4 &lt;= 5,5,1))*$L$1)+((IF(M4="Yes",5,1)*$M$1))+((N4/MAX($N$3:$N$18))*5*$N$1)+(O4*$O$1)</f>
+        <v>150.91666666666666</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>180</v>
+      </c>
+      <c r="E4">
+        <v>2048</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4">
+        <v>20</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <f>((MIN($D$3:$D$18))/D5*5*$D$1)+((E5/MAX($E$3:$E$18))*5*$E$1)+(IF(F5="Yes",5,1)*$F$1)+((IF(G5="Yes",5,1)*$G$1))+((IF(H5="Yes",5,1)*$H$1))+((IF(I5="Yes",5,1)*$I$1))+((IF(J5="Yes",5,1)*$J$1))+((IF(K5="Yes",5,1)*$K$1))+((IF(L5 &lt;= 5,5,1))*$L$1)+((IF(M5="Yes",5,1)*$M$1))+((N5/MAX($N$3:$N$18))*5*$N$1)+(O5*$O$1)</f>
+        <v>150.90151515151516</v>
+      </c>
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
+      <c r="D5">
+        <v>440</v>
+      </c>
+      <c r="E5">
+        <v>2048</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5">
+        <v>40</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3">
-        <v>140</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3">
-        <v>40</v>
-      </c>
-      <c r="N3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" t="s">
-        <v>26</v>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6">
+        <f>((MIN($D$3:$D$18))/D6*5*$D$1)+((E6/MAX($E$3:$E$18))*5*$E$1)+(IF(F6="Yes",5,1)*$F$1)+((IF(G6="Yes",5,1)*$G$1))+((IF(H6="Yes",5,1)*$H$1))+((IF(I6="Yes",5,1)*$I$1))+((IF(J6="Yes",5,1)*$J$1))+((IF(K6="Yes",5,1)*$K$1))+((IF(L6 &lt;= 5,5,1))*$L$1)+((IF(M6="Yes",5,1)*$M$1))+((N6/MAX($N$3:$N$18))*5*$N$1)+(O6*$O$1)</f>
+        <v>147.74425287356323</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>580</v>
+      </c>
+      <c r="E6">
+        <v>512</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6">
+        <v>92</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4">
-        <v>180</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4">
-        <v>20</v>
-      </c>
-      <c r="N4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5">
-        <v>220</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5">
-        <v>40</v>
-      </c>
-      <c r="N5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6">
-        <v>290</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6">
-        <v>40</v>
-      </c>
-      <c r="N6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
       <c r="B7">
-        <v>300</v>
+        <f>((MIN($D$3:$D$18))/D7*5*$D$1)+((E7/MAX($E$3:$E$18))*5*$E$1)+(IF(F7="Yes",5,1)*$F$1)+((IF(G7="Yes",5,1)*$G$1))+((IF(H7="Yes",5,1)*$H$1))+((IF(I7="Yes",5,1)*$I$1))+((IF(J7="Yes",5,1)*$J$1))+((IF(K7="Yes",5,1)*$K$1))+((IF(L7 &lt;= 5,5,1))*$L$1)+((IF(M7="Yes",5,1)*$M$1))+((N7/MAX($N$3:$N$18))*5*$N$1)+(O7*$O$1)</f>
+        <v>147.48214285714286</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7">
+        <v>350</v>
+      </c>
+      <c r="E7">
+        <v>2048</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7">
+        <v>30</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <f>((MIN($D$3:$D$18))/D8*5*$D$1)+((E8/MAX($E$3:$E$18))*5*$E$1)+(IF(F8="Yes",5,1)*$F$1)+((IF(G8="Yes",5,1)*$G$1))+((IF(H8="Yes",5,1)*$H$1))+((IF(I8="Yes",5,1)*$I$1))+((IF(J8="Yes",5,1)*$J$1))+((IF(K8="Yes",5,1)*$K$1))+((IF(L8 &lt;= 5,5,1))*$L$1)+((IF(M8="Yes",5,1)*$M$1))+((N8/MAX($N$3:$N$18))*5*$N$1)+(O8*$O$1)</f>
+        <v>144.33333333333334</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>300</v>
+      </c>
+      <c r="E8">
+        <v>2048</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8">
+        <v>40</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <f>((MIN($D$3:$D$18))/D9*5*$D$1)+((E9/MAX($E$3:$E$18))*5*$E$1)+(IF(F9="Yes",5,1)*$F$1)+((IF(G9="Yes",5,1)*$G$1))+((IF(H9="Yes",5,1)*$H$1))+((IF(I9="Yes",5,1)*$I$1))+((IF(J9="Yes",5,1)*$J$1))+((IF(K9="Yes",5,1)*$K$1))+((IF(L9 &lt;= 5,5,1))*$L$1)+((IF(M9="Yes",5,1)*$M$1))+((N9/MAX($N$3:$N$18))*5*$N$1)+(O9*$O$1)</f>
+        <v>143.33333333333331</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>90</v>
+      </c>
+      <c r="E9">
+        <v>512</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="N9">
+        <v>40</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9" t="s">
         <v>18</v>
       </c>
-      <c r="L7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <f>((MIN($D$3:$D$18))/D10*5*$D$1)+((E10/MAX($E$3:$E$18))*5*$E$1)+(IF(F10="Yes",5,1)*$F$1)+((IF(G10="Yes",5,1)*$G$1))+((IF(H10="Yes",5,1)*$H$1))+((IF(I10="Yes",5,1)*$I$1))+((IF(J10="Yes",5,1)*$J$1))+((IF(K10="Yes",5,1)*$K$1))+((IF(L10 &lt;= 5,5,1))*$L$1)+((IF(M10="Yes",5,1)*$M$1))+((N10/MAX($N$3:$N$18))*5*$N$1)+(O10*$O$1)</f>
+        <v>141.5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>810</v>
+      </c>
+      <c r="E10">
+        <v>2048</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10">
         <v>40</v>
       </c>
-      <c r="N7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" t="s">
-        <v>39</v>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8">
-        <v>310</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8">
-        <v>27</v>
-      </c>
-      <c r="N8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" t="s">
-        <v>45</v>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <f>((MIN($D$3:$D$18))/D11*5*$D$1)+((E11/MAX($E$3:$E$18))*5*$E$1)+(IF(F11="Yes",5,1)*$F$1)+((IF(G11="Yes",5,1)*$G$1))+((IF(H11="Yes",5,1)*$H$1))+((IF(I11="Yes",5,1)*$I$1))+((IF(J11="Yes",5,1)*$J$1))+((IF(K11="Yes",5,1)*$K$1))+((IF(L11 &lt;= 5,5,1))*$L$1)+((IF(M11="Yes",5,1)*$M$1))+((N11/MAX($N$3:$N$18))*5*$N$1)+(O11*$O$1)</f>
+        <v>141.1904761904762</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <v>840</v>
+      </c>
+      <c r="E11">
+        <v>1024</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11">
+        <v>76</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9">
-        <v>350</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9">
-        <v>30</v>
-      </c>
-      <c r="N9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10">
-        <v>440</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10">
-        <v>40</v>
-      </c>
-      <c r="N10" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11">
-        <v>570</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11">
-        <v>70</v>
-      </c>
-      <c r="N11" t="s">
-        <v>44</v>
-      </c>
-      <c r="O11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B12">
-        <v>580</v>
+        <f>((MIN($D$3:$D$18))/D12*5*$D$1)+((E12/MAX($E$3:$E$18))*5*$E$1)+(IF(F12="Yes",5,1)*$F$1)+((IF(G12="Yes",5,1)*$G$1))+((IF(H12="Yes",5,1)*$H$1))+((IF(I12="Yes",5,1)*$I$1))+((IF(J12="Yes",5,1)*$J$1))+((IF(K12="Yes",5,1)*$K$1))+((IF(L12 &lt;= 5,5,1))*$L$1)+((IF(M12="Yes",5,1)*$M$1))+((N12/MAX($N$3:$N$18))*5*$N$1)+(O12*$O$1)</f>
+        <v>140.90604026845637</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
+        <v>61</v>
+      </c>
+      <c r="D12">
+        <v>1490</v>
+      </c>
+      <c r="E12">
+        <v>2048</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12">
-        <v>92</v>
-      </c>
-      <c r="N12" t="s">
-        <v>44</v>
-      </c>
-      <c r="O12" t="s">
-        <v>58</v>
+        <v>16</v>
+      </c>
+      <c r="L12">
+        <v>12</v>
+      </c>
+      <c r="M12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="1">
+        <v>240</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>810</v>
+        <f>((MIN($D$3:$D$18))/D13*5*$D$1)+((E13/MAX($E$3:$E$18))*5*$E$1)+(IF(F13="Yes",5,1)*$F$1)+((IF(G13="Yes",5,1)*$G$1))+((IF(H13="Yes",5,1)*$H$1))+((IF(I13="Yes",5,1)*$I$1))+((IF(J13="Yes",5,1)*$J$1))+((IF(K13="Yes",5,1)*$K$1))+((IF(L13 &lt;= 5,5,1))*$L$1)+((IF(M13="Yes",5,1)*$M$1))+((N13/MAX($N$3:$N$18))*5*$N$1)+(O13*$O$1)</f>
+        <v>136.47619047619048</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>140</v>
+      </c>
+      <c r="E13">
+        <v>1024</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
       </c>
       <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13">
+        <v>40</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <f>((MIN($D$3:$D$18))/D14*5*$D$1)+((E14/MAX($E$3:$E$18))*5*$E$1)+(IF(F14="Yes",5,1)*$F$1)+((IF(G14="Yes",5,1)*$G$1))+((IF(H14="Yes",5,1)*$H$1))+((IF(I14="Yes",5,1)*$I$1))+((IF(J14="Yes",5,1)*$J$1))+((IF(K14="Yes",5,1)*$K$1))+((IF(L14 &lt;= 5,5,1))*$L$1)+((IF(M14="Yes",5,1)*$M$1))+((N14/MAX($N$3:$N$18))*5*$N$1)+(O14*$O$1)</f>
+        <v>129.8267543859649</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <v>570</v>
+      </c>
+      <c r="E14">
+        <v>1024</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14" t="s">
         <v>17</v>
       </c>
-      <c r="I13" t="s">
+      <c r="N14">
+        <v>70</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <f>((MIN($D$3:$D$18))/D15*5*$D$1)+((E15/MAX($E$3:$E$18))*5*$E$1)+(IF(F15="Yes",5,1)*$F$1)+((IF(G15="Yes",5,1)*$G$1))+((IF(H15="Yes",5,1)*$H$1))+((IF(I15="Yes",5,1)*$I$1))+((IF(J15="Yes",5,1)*$J$1))+((IF(K15="Yes",5,1)*$K$1))+((IF(L15 &lt;= 5,5,1))*$L$1)+((IF(M15="Yes",5,1)*$M$1))+((N15/MAX($N$3:$N$18))*5*$N$1)+(O15*$O$1)</f>
+        <v>127.16733870967742</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <v>310</v>
+      </c>
+      <c r="E15">
+        <v>256</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15" t="s">
         <v>17</v>
       </c>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13">
-        <v>40</v>
-      </c>
-      <c r="N13" t="s">
-        <v>38</v>
-      </c>
-      <c r="O13" t="s">
-        <v>61</v>
+      <c r="N15">
+        <v>27</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14">
-        <v>810</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14">
-        <v>10</v>
-      </c>
-      <c r="N14" t="s">
-        <v>38</v>
-      </c>
-      <c r="O14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15">
-        <v>840</v>
-      </c>
-      <c r="C15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15">
-        <v>76</v>
-      </c>
-      <c r="N15" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B16">
-        <v>1000</v>
+        <f>((MIN($D$3:$D$18))/D16*5*$D$1)+((E16/MAX($E$3:$E$18))*5*$E$1)+(IF(F16="Yes",5,1)*$F$1)+((IF(G16="Yes",5,1)*$G$1))+((IF(H16="Yes",5,1)*$H$1))+((IF(I16="Yes",5,1)*$I$1))+((IF(J16="Yes",5,1)*$J$1))+((IF(K16="Yes",5,1)*$K$1))+((IF(L16 &lt;= 5,5,1))*$L$1)+((IF(M16="Yes",5,1)*$M$1))+((N16/MAX($N$3:$N$18))*5*$N$1)+(O16*$O$1)</f>
+        <v>112.48850574712644</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>290</v>
+      </c>
+      <c r="E16">
+        <v>2048</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
       </c>
       <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
         <v>17</v>
-      </c>
-      <c r="I16" t="s">
-        <v>64</v>
       </c>
       <c r="J16" t="s">
         <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16">
-        <v>48</v>
-      </c>
-      <c r="N16" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" t="s">
-        <v>71</v>
+        <v>16</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16">
+        <v>40</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B17">
-        <v>1490</v>
+        <f>((MIN($D$3:$D$18))/D17*5*$D$1)+((E17/MAX($E$3:$E$18))*5*$E$1)+(IF(F17="Yes",5,1)*$F$1)+((IF(G17="Yes",5,1)*$G$1))+((IF(H17="Yes",5,1)*$H$1))+((IF(I17="Yes",5,1)*$I$1))+((IF(J17="Yes",5,1)*$J$1))+((IF(K17="Yes",5,1)*$K$1))+((IF(L17 &lt;= 5,5,1))*$L$1)+((IF(M17="Yes",5,1)*$M$1))+((N17/MAX($N$3:$N$18))*5*$N$1)+(O17*$O$1)</f>
+        <v>112.35</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
+        <v>58</v>
+      </c>
+      <c r="D17">
+        <v>1000</v>
+      </c>
+      <c r="E17">
+        <v>1024</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
       </c>
       <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17">
+        <v>48</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <f>((MIN($D$3:$D$18))/D18*5*$D$1)+((E18/MAX($E$3:$E$18))*5*$E$1)+(IF(F18="Yes",5,1)*$F$1)+((IF(G18="Yes",5,1)*$G$1))+((IF(H18="Yes",5,1)*$H$1))+((IF(I18="Yes",5,1)*$I$1))+((IF(J18="Yes",5,1)*$J$1))+((IF(K18="Yes",5,1)*$K$1))+((IF(L18 &lt;= 5,5,1))*$L$1)+((IF(M18="Yes",5,1)*$M$1))+((N18/MAX($N$3:$N$18))*5*$N$1)+(O18*$O$1)</f>
+        <v>104.87499999999999</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18">
+        <v>810</v>
+      </c>
+      <c r="E18">
+        <v>2048</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18" t="s">
         <v>17</v>
       </c>
-      <c r="I17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="1">
-        <v>240</v>
-      </c>
-      <c r="N17" t="s">
-        <v>44</v>
-      </c>
-      <c r="O17" t="s">
-        <v>75</v>
+      <c r="N18">
+        <v>10</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M2:M16">
-    <cfRule type="colorScale" priority="2">
+  <sortState ref="A3:P24">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
+  <conditionalFormatting sqref="B3:B19">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B17">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
+  <conditionalFormatting sqref="D3:D18">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B39668D6-3434-4BED-9270-E89D1C065BDA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E18">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CF61F305-7972-4844-8B44-60DC95BD53BD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N18">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1FE0668D-3B44-45B9-8D54-D6BC7D98FAA5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L18">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9ED35210-7986-421D-B865-763E34DB7B61}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O18">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F87032EA-DF0C-4E32-8E35-0ED30CE6BFA6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:K18">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M18">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:K18 M3:M18">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B39668D6-3434-4BED-9270-E89D1C065BDA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3:D18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CF61F305-7972-4844-8B44-60DC95BD53BD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E3:E18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1FE0668D-3B44-45B9-8D54-D6BC7D98FAA5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N3:N18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9ED35210-7986-421D-B865-763E34DB7B61}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L3:L18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F87032EA-DF0C-4E32-8E35-0ED30CE6BFA6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O3:O18</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>